--- a/forms/app/vaccination_followup.xlsx
+++ b/forms/app/vaccination_followup.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="413">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -458,7 +458,7 @@
     <t xml:space="preserve">BCG</t>
   </si>
   <si>
-    <t xml:space="preserve">horizontal</t>
+    <t xml:space="preserve">columns</t>
   </si>
   <si>
     <t xml:space="preserve">coalesce(${s_vaccinal_status_BCG},${t_vaccinal_status_BCG})</t>
@@ -1244,6 +1244,9 @@
   </si>
   <si>
     <t xml:space="preserve">select_one c_nutritional_state_appetite_test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horizontal</t>
   </si>
   <si>
     <t xml:space="preserve">h4 blue</t>
@@ -1555,7 +1558,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1650,14 +1653,6 @@
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1897,9 +1892,9 @@
   <dimension ref="A1:AS1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3124,190 +3119,279 @@
       <c r="O46" s="20"/>
     </row>
     <row r="47" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="20"/>
+      <c r="A47" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="24"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="25"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="25"/>
+      <c r="AF47" s="25"/>
+      <c r="AG47" s="25"/>
+      <c r="AH47" s="25"/>
+      <c r="AI47" s="25"/>
+      <c r="AJ47" s="25"/>
+      <c r="AK47" s="25"/>
+      <c r="AL47" s="25"/>
+      <c r="AM47" s="25"/>
+      <c r="AN47" s="25"/>
+      <c r="AO47" s="25"/>
+      <c r="AP47" s="25"/>
+      <c r="AQ47" s="25"/>
+      <c r="AR47" s="25"/>
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="20"/>
-    </row>
-    <row r="49" s="24" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D49" s="25"/>
-      <c r="I49" s="0"/>
+      <c r="A48" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="25"/>
+      <c r="AA48" s="25"/>
+      <c r="AB48" s="25"/>
+      <c r="AC48" s="25"/>
+      <c r="AD48" s="25"/>
+      <c r="AE48" s="25"/>
+      <c r="AF48" s="25"/>
+      <c r="AG48" s="25"/>
+      <c r="AH48" s="25"/>
+      <c r="AI48" s="25"/>
+      <c r="AJ48" s="25"/>
+      <c r="AK48" s="25"/>
+      <c r="AL48" s="25"/>
+      <c r="AM48" s="25"/>
+      <c r="AN48" s="25"/>
+      <c r="AO48" s="25"/>
+      <c r="AP48" s="25"/>
+      <c r="AQ48" s="25"/>
+      <c r="AR48" s="25"/>
+    </row>
+    <row r="49" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="25"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="25"/>
+      <c r="W51" s="25"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="25"/>
+      <c r="Z51" s="25"/>
+      <c r="AA51" s="25"/>
+      <c r="AB51" s="25"/>
+      <c r="AC51" s="25"/>
+      <c r="AD51" s="25"/>
+      <c r="AE51" s="25"/>
+      <c r="AF51" s="25"/>
+      <c r="AG51" s="25"/>
+      <c r="AH51" s="25"/>
+      <c r="AI51" s="25"/>
+      <c r="AJ51" s="25"/>
+      <c r="AK51" s="25"/>
+      <c r="AL51" s="25"/>
+      <c r="AM51" s="25"/>
+      <c r="AN51" s="25"/>
+      <c r="AO51" s="25"/>
+      <c r="AP51" s="25"/>
+      <c r="AQ51" s="25"/>
+      <c r="AR51" s="25"/>
+    </row>
+    <row r="52" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" s="26"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="27"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="27"/>
-      <c r="W50" s="27"/>
-      <c r="X50" s="27"/>
-      <c r="Y50" s="27"/>
-      <c r="Z50" s="27"/>
-      <c r="AA50" s="27"/>
-      <c r="AB50" s="27"/>
-      <c r="AC50" s="27"/>
-      <c r="AD50" s="27"/>
-      <c r="AE50" s="27"/>
-      <c r="AF50" s="27"/>
-      <c r="AG50" s="27"/>
-      <c r="AH50" s="27"/>
-      <c r="AI50" s="27"/>
-      <c r="AJ50" s="27"/>
-      <c r="AK50" s="27"/>
-      <c r="AL50" s="27"/>
-      <c r="AM50" s="27"/>
-      <c r="AN50" s="27"/>
-      <c r="AO50" s="27"/>
-      <c r="AP50" s="27"/>
-      <c r="AQ50" s="27"/>
-      <c r="AR50" s="27"/>
-    </row>
-    <row r="51" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="27"/>
-      <c r="U51" s="27"/>
-      <c r="V51" s="27"/>
-      <c r="W51" s="27"/>
-      <c r="X51" s="27"/>
-      <c r="Y51" s="27"/>
-      <c r="Z51" s="27"/>
-      <c r="AA51" s="27"/>
-      <c r="AB51" s="27"/>
-      <c r="AC51" s="27"/>
-      <c r="AD51" s="27"/>
-      <c r="AE51" s="27"/>
-      <c r="AF51" s="27"/>
-      <c r="AG51" s="27"/>
-      <c r="AH51" s="27"/>
-      <c r="AI51" s="27"/>
-      <c r="AJ51" s="27"/>
-      <c r="AK51" s="27"/>
-      <c r="AL51" s="27"/>
-      <c r="AM51" s="27"/>
-      <c r="AN51" s="27"/>
-      <c r="AO51" s="27"/>
-      <c r="AP51" s="27"/>
-      <c r="AQ51" s="27"/>
-      <c r="AR51" s="27"/>
-    </row>
-    <row r="52" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="B52" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="25"/>
+      <c r="U52" s="25"/>
+      <c r="V52" s="25"/>
+      <c r="W52" s="25"/>
+      <c r="X52" s="25"/>
+      <c r="Y52" s="25"/>
+      <c r="Z52" s="25"/>
+      <c r="AA52" s="25"/>
+      <c r="AB52" s="25"/>
+      <c r="AC52" s="25"/>
+      <c r="AD52" s="25"/>
+      <c r="AE52" s="25"/>
+      <c r="AF52" s="25"/>
+      <c r="AG52" s="25"/>
+      <c r="AH52" s="25"/>
+      <c r="AI52" s="25"/>
+      <c r="AJ52" s="25"/>
+      <c r="AK52" s="25"/>
+      <c r="AL52" s="25"/>
+      <c r="AM52" s="25"/>
+      <c r="AN52" s="25"/>
+      <c r="AO52" s="25"/>
+      <c r="AP52" s="25"/>
+      <c r="AQ52" s="25"/>
+      <c r="AR52" s="25"/>
     </row>
     <row r="53" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="20" t="s">
         <v>141</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>32</v>
@@ -3316,125 +3400,67 @@
         <v>144</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="27"/>
-      <c r="U54" s="27"/>
-      <c r="V54" s="27"/>
-      <c r="W54" s="27"/>
-      <c r="X54" s="27"/>
-      <c r="Y54" s="27"/>
-      <c r="Z54" s="27"/>
-      <c r="AA54" s="27"/>
-      <c r="AB54" s="27"/>
-      <c r="AC54" s="27"/>
-      <c r="AD54" s="27"/>
-      <c r="AE54" s="27"/>
-      <c r="AF54" s="27"/>
-      <c r="AG54" s="27"/>
-      <c r="AH54" s="27"/>
-      <c r="AI54" s="27"/>
-      <c r="AJ54" s="27"/>
-      <c r="AK54" s="27"/>
-      <c r="AL54" s="27"/>
-      <c r="AM54" s="27"/>
-      <c r="AN54" s="27"/>
-      <c r="AO54" s="27"/>
-      <c r="AP54" s="27"/>
-      <c r="AQ54" s="27"/>
-      <c r="AR54" s="27"/>
+      <c r="A54" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="27"/>
-      <c r="U55" s="27"/>
-      <c r="V55" s="27"/>
-      <c r="W55" s="27"/>
-      <c r="X55" s="27"/>
-      <c r="Y55" s="27"/>
-      <c r="Z55" s="27"/>
-      <c r="AA55" s="27"/>
-      <c r="AB55" s="27"/>
-      <c r="AC55" s="27"/>
-      <c r="AD55" s="27"/>
-      <c r="AE55" s="27"/>
-      <c r="AF55" s="27"/>
-      <c r="AG55" s="27"/>
-      <c r="AH55" s="27"/>
-      <c r="AI55" s="27"/>
-      <c r="AJ55" s="27"/>
-      <c r="AK55" s="27"/>
-      <c r="AL55" s="27"/>
-      <c r="AM55" s="27"/>
-      <c r="AN55" s="27"/>
-      <c r="AO55" s="27"/>
-      <c r="AP55" s="27"/>
-      <c r="AQ55" s="27"/>
-      <c r="AR55" s="27"/>
+      <c r="A55" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="20" t="s">
         <v>141</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>32</v>
@@ -3443,67 +3469,125 @@
         <v>144</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G57" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="A57" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="25"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="25"/>
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+      <c r="X57" s="25"/>
+      <c r="Y57" s="25"/>
+      <c r="Z57" s="25"/>
+      <c r="AA57" s="25"/>
+      <c r="AB57" s="25"/>
+      <c r="AC57" s="25"/>
+      <c r="AD57" s="25"/>
+      <c r="AE57" s="25"/>
+      <c r="AF57" s="25"/>
+      <c r="AG57" s="25"/>
+      <c r="AH57" s="25"/>
+      <c r="AI57" s="25"/>
+      <c r="AJ57" s="25"/>
+      <c r="AK57" s="25"/>
+      <c r="AL57" s="25"/>
+      <c r="AM57" s="25"/>
+      <c r="AN57" s="25"/>
+      <c r="AO57" s="25"/>
+      <c r="AP57" s="25"/>
+      <c r="AQ57" s="25"/>
+      <c r="AR57" s="25"/>
     </row>
     <row r="58" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="A58" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="25"/>
+      <c r="T58" s="25"/>
+      <c r="U58" s="25"/>
+      <c r="V58" s="25"/>
+      <c r="W58" s="25"/>
+      <c r="X58" s="25"/>
+      <c r="Y58" s="25"/>
+      <c r="Z58" s="25"/>
+      <c r="AA58" s="25"/>
+      <c r="AB58" s="25"/>
+      <c r="AC58" s="25"/>
+      <c r="AD58" s="25"/>
+      <c r="AE58" s="25"/>
+      <c r="AF58" s="25"/>
+      <c r="AG58" s="25"/>
+      <c r="AH58" s="25"/>
+      <c r="AI58" s="25"/>
+      <c r="AJ58" s="25"/>
+      <c r="AK58" s="25"/>
+      <c r="AL58" s="25"/>
+      <c r="AM58" s="25"/>
+      <c r="AN58" s="25"/>
+      <c r="AO58" s="25"/>
+      <c r="AP58" s="25"/>
+      <c r="AQ58" s="25"/>
+      <c r="AR58" s="25"/>
     </row>
     <row r="59" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="20" t="s">
         <v>141</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>32</v>
@@ -3512,125 +3596,67 @@
         <v>144</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B60" s="27"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="27"/>
-      <c r="R60" s="27"/>
-      <c r="S60" s="27"/>
-      <c r="T60" s="27"/>
-      <c r="U60" s="27"/>
-      <c r="V60" s="27"/>
-      <c r="W60" s="27"/>
-      <c r="X60" s="27"/>
-      <c r="Y60" s="27"/>
-      <c r="Z60" s="27"/>
-      <c r="AA60" s="27"/>
-      <c r="AB60" s="27"/>
-      <c r="AC60" s="27"/>
-      <c r="AD60" s="27"/>
-      <c r="AE60" s="27"/>
-      <c r="AF60" s="27"/>
-      <c r="AG60" s="27"/>
-      <c r="AH60" s="27"/>
-      <c r="AI60" s="27"/>
-      <c r="AJ60" s="27"/>
-      <c r="AK60" s="27"/>
-      <c r="AL60" s="27"/>
-      <c r="AM60" s="27"/>
-      <c r="AN60" s="27"/>
-      <c r="AO60" s="27"/>
-      <c r="AP60" s="27"/>
-      <c r="AQ60" s="27"/>
-      <c r="AR60" s="27"/>
+      <c r="A60" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="26"/>
-      <c r="P61" s="27"/>
-      <c r="Q61" s="27"/>
-      <c r="R61" s="27"/>
-      <c r="S61" s="27"/>
-      <c r="T61" s="27"/>
-      <c r="U61" s="27"/>
-      <c r="V61" s="27"/>
-      <c r="W61" s="27"/>
-      <c r="X61" s="27"/>
-      <c r="Y61" s="27"/>
-      <c r="Z61" s="27"/>
-      <c r="AA61" s="27"/>
-      <c r="AB61" s="27"/>
-      <c r="AC61" s="27"/>
-      <c r="AD61" s="27"/>
-      <c r="AE61" s="27"/>
-      <c r="AF61" s="27"/>
-      <c r="AG61" s="27"/>
-      <c r="AH61" s="27"/>
-      <c r="AI61" s="27"/>
-      <c r="AJ61" s="27"/>
-      <c r="AK61" s="27"/>
-      <c r="AL61" s="27"/>
-      <c r="AM61" s="27"/>
-      <c r="AN61" s="27"/>
-      <c r="AO61" s="27"/>
-      <c r="AP61" s="27"/>
-      <c r="AQ61" s="27"/>
-      <c r="AR61" s="27"/>
+      <c r="A61" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="20" t="s">
         <v>141</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>32</v>
@@ -3639,67 +3665,125 @@
         <v>144</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="A63" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" s="25"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="25"/>
+      <c r="R63" s="25"/>
+      <c r="S63" s="25"/>
+      <c r="T63" s="25"/>
+      <c r="U63" s="25"/>
+      <c r="V63" s="25"/>
+      <c r="W63" s="25"/>
+      <c r="X63" s="25"/>
+      <c r="Y63" s="25"/>
+      <c r="Z63" s="25"/>
+      <c r="AA63" s="25"/>
+      <c r="AB63" s="25"/>
+      <c r="AC63" s="25"/>
+      <c r="AD63" s="25"/>
+      <c r="AE63" s="25"/>
+      <c r="AF63" s="25"/>
+      <c r="AG63" s="25"/>
+      <c r="AH63" s="25"/>
+      <c r="AI63" s="25"/>
+      <c r="AJ63" s="25"/>
+      <c r="AK63" s="25"/>
+      <c r="AL63" s="25"/>
+      <c r="AM63" s="25"/>
+      <c r="AN63" s="25"/>
+      <c r="AO63" s="25"/>
+      <c r="AP63" s="25"/>
+      <c r="AQ63" s="25"/>
+      <c r="AR63" s="25"/>
     </row>
     <row r="64" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G64" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>177</v>
-      </c>
+      <c r="A64" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="25"/>
+      <c r="T64" s="25"/>
+      <c r="U64" s="25"/>
+      <c r="V64" s="25"/>
+      <c r="W64" s="25"/>
+      <c r="X64" s="25"/>
+      <c r="Y64" s="25"/>
+      <c r="Z64" s="25"/>
+      <c r="AA64" s="25"/>
+      <c r="AB64" s="25"/>
+      <c r="AC64" s="25"/>
+      <c r="AD64" s="25"/>
+      <c r="AE64" s="25"/>
+      <c r="AF64" s="25"/>
+      <c r="AG64" s="25"/>
+      <c r="AH64" s="25"/>
+      <c r="AI64" s="25"/>
+      <c r="AJ64" s="25"/>
+      <c r="AK64" s="25"/>
+      <c r="AL64" s="25"/>
+      <c r="AM64" s="25"/>
+      <c r="AN64" s="25"/>
+      <c r="AO64" s="25"/>
+      <c r="AP64" s="25"/>
+      <c r="AQ64" s="25"/>
+      <c r="AR64" s="25"/>
     </row>
     <row r="65" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="20" t="s">
         <v>141</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>32</v>
@@ -3708,125 +3792,67 @@
         <v>144</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" s="27"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="29"/>
-      <c r="O66" s="26"/>
-      <c r="P66" s="27"/>
-      <c r="Q66" s="27"/>
-      <c r="R66" s="27"/>
-      <c r="S66" s="27"/>
-      <c r="T66" s="27"/>
-      <c r="U66" s="27"/>
-      <c r="V66" s="27"/>
-      <c r="W66" s="27"/>
-      <c r="X66" s="27"/>
-      <c r="Y66" s="27"/>
-      <c r="Z66" s="27"/>
-      <c r="AA66" s="27"/>
-      <c r="AB66" s="27"/>
-      <c r="AC66" s="27"/>
-      <c r="AD66" s="27"/>
-      <c r="AE66" s="27"/>
-      <c r="AF66" s="27"/>
-      <c r="AG66" s="27"/>
-      <c r="AH66" s="27"/>
-      <c r="AI66" s="27"/>
-      <c r="AJ66" s="27"/>
-      <c r="AK66" s="27"/>
-      <c r="AL66" s="27"/>
-      <c r="AM66" s="27"/>
-      <c r="AN66" s="27"/>
-      <c r="AO66" s="27"/>
-      <c r="AP66" s="27"/>
-      <c r="AQ66" s="27"/>
-      <c r="AR66" s="27"/>
+      <c r="A66" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="D67" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="29"/>
-      <c r="O67" s="26"/>
-      <c r="P67" s="27"/>
-      <c r="Q67" s="27"/>
-      <c r="R67" s="27"/>
-      <c r="S67" s="27"/>
-      <c r="T67" s="27"/>
-      <c r="U67" s="27"/>
-      <c r="V67" s="27"/>
-      <c r="W67" s="27"/>
-      <c r="X67" s="27"/>
-      <c r="Y67" s="27"/>
-      <c r="Z67" s="27"/>
-      <c r="AA67" s="27"/>
-      <c r="AB67" s="27"/>
-      <c r="AC67" s="27"/>
-      <c r="AD67" s="27"/>
-      <c r="AE67" s="27"/>
-      <c r="AF67" s="27"/>
-      <c r="AG67" s="27"/>
-      <c r="AH67" s="27"/>
-      <c r="AI67" s="27"/>
-      <c r="AJ67" s="27"/>
-      <c r="AK67" s="27"/>
-      <c r="AL67" s="27"/>
-      <c r="AM67" s="27"/>
-      <c r="AN67" s="27"/>
-      <c r="AO67" s="27"/>
-      <c r="AP67" s="27"/>
-      <c r="AQ67" s="27"/>
-      <c r="AR67" s="27"/>
+      <c r="A67" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="20" t="s">
         <v>141</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>32</v>
@@ -3835,67 +3861,125 @@
         <v>144</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G69" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="A69" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" s="25"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="25"/>
+      <c r="V69" s="25"/>
+      <c r="W69" s="25"/>
+      <c r="X69" s="25"/>
+      <c r="Y69" s="25"/>
+      <c r="Z69" s="25"/>
+      <c r="AA69" s="25"/>
+      <c r="AB69" s="25"/>
+      <c r="AC69" s="25"/>
+      <c r="AD69" s="25"/>
+      <c r="AE69" s="25"/>
+      <c r="AF69" s="25"/>
+      <c r="AG69" s="25"/>
+      <c r="AH69" s="25"/>
+      <c r="AI69" s="25"/>
+      <c r="AJ69" s="25"/>
+      <c r="AK69" s="25"/>
+      <c r="AL69" s="25"/>
+      <c r="AM69" s="25"/>
+      <c r="AN69" s="25"/>
+      <c r="AO69" s="25"/>
+      <c r="AP69" s="25"/>
+      <c r="AQ69" s="25"/>
+      <c r="AR69" s="25"/>
     </row>
     <row r="70" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G70" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>193</v>
-      </c>
+      <c r="A70" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="27"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="25"/>
+      <c r="U70" s="25"/>
+      <c r="V70" s="25"/>
+      <c r="W70" s="25"/>
+      <c r="X70" s="25"/>
+      <c r="Y70" s="25"/>
+      <c r="Z70" s="25"/>
+      <c r="AA70" s="25"/>
+      <c r="AB70" s="25"/>
+      <c r="AC70" s="25"/>
+      <c r="AD70" s="25"/>
+      <c r="AE70" s="25"/>
+      <c r="AF70" s="25"/>
+      <c r="AG70" s="25"/>
+      <c r="AH70" s="25"/>
+      <c r="AI70" s="25"/>
+      <c r="AJ70" s="25"/>
+      <c r="AK70" s="25"/>
+      <c r="AL70" s="25"/>
+      <c r="AM70" s="25"/>
+      <c r="AN70" s="25"/>
+      <c r="AO70" s="25"/>
+      <c r="AP70" s="25"/>
+      <c r="AQ70" s="25"/>
+      <c r="AR70" s="25"/>
     </row>
     <row r="71" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="20" t="s">
         <v>141</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>32</v>
@@ -3904,171 +3988,171 @@
         <v>144</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="26" t="s">
+      <c r="A72" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B72" s="27"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="26"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="29"/>
-      <c r="N72" s="29"/>
-      <c r="O72" s="26"/>
-      <c r="P72" s="27"/>
-      <c r="Q72" s="27"/>
-      <c r="R72" s="27"/>
-      <c r="S72" s="27"/>
-      <c r="T72" s="27"/>
-      <c r="U72" s="27"/>
-      <c r="V72" s="27"/>
-      <c r="W72" s="27"/>
-      <c r="X72" s="27"/>
-      <c r="Y72" s="27"/>
-      <c r="Z72" s="27"/>
-      <c r="AA72" s="27"/>
-      <c r="AB72" s="27"/>
-      <c r="AC72" s="27"/>
-      <c r="AD72" s="27"/>
-      <c r="AE72" s="27"/>
-      <c r="AF72" s="27"/>
-      <c r="AG72" s="27"/>
-      <c r="AH72" s="27"/>
-      <c r="AI72" s="27"/>
-      <c r="AJ72" s="27"/>
-      <c r="AK72" s="27"/>
-      <c r="AL72" s="27"/>
-      <c r="AM72" s="27"/>
-      <c r="AN72" s="27"/>
-      <c r="AO72" s="27"/>
-      <c r="AP72" s="27"/>
-      <c r="AQ72" s="27"/>
-      <c r="AR72" s="27"/>
-    </row>
-    <row r="73" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="26" t="s">
+      <c r="B74" s="25"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="25"/>
+      <c r="Q74" s="25"/>
+      <c r="R74" s="25"/>
+      <c r="S74" s="25"/>
+      <c r="T74" s="25"/>
+      <c r="U74" s="25"/>
+      <c r="V74" s="25"/>
+      <c r="W74" s="25"/>
+      <c r="X74" s="25"/>
+      <c r="Y74" s="25"/>
+      <c r="Z74" s="25"/>
+      <c r="AA74" s="25"/>
+      <c r="AB74" s="25"/>
+      <c r="AC74" s="25"/>
+      <c r="AD74" s="25"/>
+      <c r="AE74" s="25"/>
+      <c r="AF74" s="25"/>
+      <c r="AG74" s="25"/>
+      <c r="AH74" s="25"/>
+      <c r="AI74" s="25"/>
+      <c r="AJ74" s="25"/>
+      <c r="AK74" s="25"/>
+      <c r="AL74" s="25"/>
+      <c r="AM74" s="25"/>
+      <c r="AN74" s="25"/>
+      <c r="AO74" s="25"/>
+      <c r="AP74" s="25"/>
+      <c r="AQ74" s="25"/>
+      <c r="AR74" s="25"/>
+    </row>
+    <row r="75" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="C73" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="D73" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="26"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="29"/>
-      <c r="N73" s="29"/>
-      <c r="O73" s="26"/>
-      <c r="P73" s="27"/>
-      <c r="Q73" s="27"/>
-      <c r="R73" s="27"/>
-      <c r="S73" s="27"/>
-      <c r="T73" s="27"/>
-      <c r="U73" s="27"/>
-      <c r="V73" s="27"/>
-      <c r="W73" s="27"/>
-      <c r="X73" s="27"/>
-      <c r="Y73" s="27"/>
-      <c r="Z73" s="27"/>
-      <c r="AA73" s="27"/>
-      <c r="AB73" s="27"/>
-      <c r="AC73" s="27"/>
-      <c r="AD73" s="27"/>
-      <c r="AE73" s="27"/>
-      <c r="AF73" s="27"/>
-      <c r="AG73" s="27"/>
-      <c r="AH73" s="27"/>
-      <c r="AI73" s="27"/>
-      <c r="AJ73" s="27"/>
-      <c r="AK73" s="27"/>
-      <c r="AL73" s="27"/>
-      <c r="AM73" s="27"/>
-      <c r="AN73" s="27"/>
-      <c r="AO73" s="27"/>
-      <c r="AP73" s="27"/>
-      <c r="AQ73" s="27"/>
-      <c r="AR73" s="27"/>
-    </row>
-    <row r="74" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G74" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G75" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="B75" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="27"/>
+      <c r="N75" s="27"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="25"/>
+      <c r="S75" s="25"/>
+      <c r="T75" s="25"/>
+      <c r="U75" s="25"/>
+      <c r="V75" s="25"/>
+      <c r="W75" s="25"/>
+      <c r="X75" s="25"/>
+      <c r="Y75" s="25"/>
+      <c r="Z75" s="25"/>
+      <c r="AA75" s="25"/>
+      <c r="AB75" s="25"/>
+      <c r="AC75" s="25"/>
+      <c r="AD75" s="25"/>
+      <c r="AE75" s="25"/>
+      <c r="AF75" s="25"/>
+      <c r="AG75" s="25"/>
+      <c r="AH75" s="25"/>
+      <c r="AI75" s="25"/>
+      <c r="AJ75" s="25"/>
+      <c r="AK75" s="25"/>
+      <c r="AL75" s="25"/>
+      <c r="AM75" s="25"/>
+      <c r="AN75" s="25"/>
+      <c r="AO75" s="25"/>
+      <c r="AP75" s="25"/>
+      <c r="AQ75" s="25"/>
+      <c r="AR75" s="25"/>
     </row>
     <row r="76" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="20" t="s">
         <v>141</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>32</v>
@@ -4077,558 +4161,503 @@
         <v>144</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="26" t="s">
+      <c r="A77" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G77" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="27"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="26"/>
-      <c r="M77" s="29"/>
-      <c r="N77" s="29"/>
-      <c r="O77" s="26"/>
-      <c r="P77" s="27"/>
-      <c r="Q77" s="27"/>
-      <c r="R77" s="27"/>
-      <c r="S77" s="27"/>
-      <c r="T77" s="27"/>
-      <c r="U77" s="27"/>
-      <c r="V77" s="27"/>
-      <c r="W77" s="27"/>
-      <c r="X77" s="27"/>
-      <c r="Y77" s="27"/>
-      <c r="Z77" s="27"/>
-      <c r="AA77" s="27"/>
-      <c r="AB77" s="27"/>
-      <c r="AC77" s="27"/>
-      <c r="AD77" s="27"/>
-      <c r="AE77" s="27"/>
-      <c r="AF77" s="27"/>
-      <c r="AG77" s="27"/>
-      <c r="AH77" s="27"/>
-      <c r="AI77" s="27"/>
-      <c r="AJ77" s="27"/>
-      <c r="AK77" s="27"/>
-      <c r="AL77" s="27"/>
-      <c r="AM77" s="27"/>
-      <c r="AN77" s="27"/>
-      <c r="AO77" s="27"/>
-      <c r="AP77" s="27"/>
-      <c r="AQ77" s="27"/>
-      <c r="AR77" s="27"/>
-    </row>
-    <row r="78" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="26" t="s">
+      <c r="B78" s="25"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="27"/>
+      <c r="N78" s="27"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="25"/>
+      <c r="R78" s="25"/>
+      <c r="S78" s="25"/>
+      <c r="T78" s="25"/>
+      <c r="U78" s="25"/>
+      <c r="V78" s="25"/>
+      <c r="W78" s="25"/>
+      <c r="X78" s="25"/>
+      <c r="Y78" s="25"/>
+      <c r="Z78" s="25"/>
+      <c r="AA78" s="25"/>
+      <c r="AB78" s="25"/>
+      <c r="AC78" s="25"/>
+      <c r="AD78" s="25"/>
+      <c r="AE78" s="25"/>
+      <c r="AF78" s="25"/>
+      <c r="AG78" s="25"/>
+      <c r="AH78" s="25"/>
+      <c r="AI78" s="25"/>
+      <c r="AJ78" s="25"/>
+      <c r="AK78" s="25"/>
+      <c r="AL78" s="25"/>
+      <c r="AM78" s="25"/>
+      <c r="AN78" s="25"/>
+      <c r="AO78" s="25"/>
+      <c r="AP78" s="25"/>
+      <c r="AQ78" s="25"/>
+      <c r="AR78" s="25"/>
+    </row>
+    <row r="79" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" s="25"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="27"/>
+      <c r="N79" s="27"/>
+      <c r="O79" s="24"/>
+      <c r="P79" s="25"/>
+      <c r="Q79" s="25"/>
+      <c r="R79" s="25"/>
+      <c r="S79" s="25"/>
+      <c r="T79" s="25"/>
+      <c r="U79" s="25"/>
+      <c r="V79" s="25"/>
+      <c r="W79" s="25"/>
+      <c r="X79" s="25"/>
+      <c r="Y79" s="25"/>
+      <c r="Z79" s="25"/>
+      <c r="AA79" s="25"/>
+      <c r="AB79" s="25"/>
+      <c r="AC79" s="25"/>
+      <c r="AD79" s="25"/>
+      <c r="AE79" s="25"/>
+      <c r="AF79" s="25"/>
+      <c r="AG79" s="25"/>
+      <c r="AH79" s="25"/>
+      <c r="AI79" s="25"/>
+      <c r="AJ79" s="25"/>
+      <c r="AK79" s="25"/>
+      <c r="AL79" s="25"/>
+      <c r="AM79" s="25"/>
+      <c r="AN79" s="25"/>
+      <c r="AO79" s="25"/>
+      <c r="AP79" s="25"/>
+      <c r="AQ79" s="25"/>
+      <c r="AR79" s="25"/>
+    </row>
+    <row r="80" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AL80" s="25"/>
+      <c r="AM80" s="25"/>
+      <c r="AN80" s="25"/>
+      <c r="AO80" s="25"/>
+      <c r="AP80" s="25"/>
+      <c r="AQ80" s="25"/>
+      <c r="AR80" s="25"/>
+    </row>
+    <row r="81" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AL81" s="25"/>
+      <c r="AM81" s="25"/>
+      <c r="AN81" s="25"/>
+      <c r="AO81" s="25"/>
+      <c r="AP81" s="25"/>
+      <c r="AQ81" s="25"/>
+      <c r="AR81" s="25"/>
+    </row>
+    <row r="82" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B78" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="C78" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="D78" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="26"/>
-      <c r="L78" s="26"/>
-      <c r="M78" s="29"/>
-      <c r="N78" s="29"/>
-      <c r="O78" s="26"/>
-      <c r="P78" s="27"/>
-      <c r="Q78" s="27"/>
-      <c r="R78" s="27"/>
-      <c r="S78" s="27"/>
-      <c r="T78" s="27"/>
-      <c r="U78" s="27"/>
-      <c r="V78" s="27"/>
-      <c r="W78" s="27"/>
-      <c r="X78" s="27"/>
-      <c r="Y78" s="27"/>
-      <c r="Z78" s="27"/>
-      <c r="AA78" s="27"/>
-      <c r="AB78" s="27"/>
-      <c r="AC78" s="27"/>
-      <c r="AD78" s="27"/>
-      <c r="AE78" s="27"/>
-      <c r="AF78" s="27"/>
-      <c r="AG78" s="27"/>
-      <c r="AH78" s="27"/>
-      <c r="AI78" s="27"/>
-      <c r="AJ78" s="27"/>
-      <c r="AK78" s="27"/>
-      <c r="AL78" s="27"/>
-      <c r="AM78" s="27"/>
-      <c r="AN78" s="27"/>
-      <c r="AO78" s="27"/>
-      <c r="AP78" s="27"/>
-      <c r="AQ78" s="27"/>
-      <c r="AR78" s="27"/>
-    </row>
-    <row r="79" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="D80" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="G80" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B81" s="27"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="26"/>
-      <c r="L81" s="26"/>
-      <c r="M81" s="29"/>
-      <c r="N81" s="29"/>
-      <c r="O81" s="26"/>
-      <c r="P81" s="27"/>
-      <c r="Q81" s="27"/>
-      <c r="R81" s="27"/>
-      <c r="S81" s="27"/>
-      <c r="T81" s="27"/>
-      <c r="U81" s="27"/>
-      <c r="V81" s="27"/>
-      <c r="W81" s="27"/>
-      <c r="X81" s="27"/>
-      <c r="Y81" s="27"/>
-      <c r="Z81" s="27"/>
-      <c r="AA81" s="27"/>
-      <c r="AB81" s="27"/>
-      <c r="AC81" s="27"/>
-      <c r="AD81" s="27"/>
-      <c r="AE81" s="27"/>
-      <c r="AF81" s="27"/>
-      <c r="AG81" s="27"/>
-      <c r="AH81" s="27"/>
-      <c r="AI81" s="27"/>
-      <c r="AJ81" s="27"/>
-      <c r="AK81" s="27"/>
-      <c r="AL81" s="27"/>
-      <c r="AM81" s="27"/>
-      <c r="AN81" s="27"/>
-      <c r="AO81" s="27"/>
-      <c r="AP81" s="27"/>
-      <c r="AQ81" s="27"/>
-      <c r="AR81" s="27"/>
-    </row>
-    <row r="82" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82" s="27"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="26"/>
-      <c r="L82" s="26"/>
-      <c r="M82" s="29"/>
-      <c r="N82" s="29"/>
-      <c r="O82" s="26"/>
-      <c r="P82" s="27"/>
-      <c r="Q82" s="27"/>
-      <c r="R82" s="27"/>
-      <c r="S82" s="27"/>
-      <c r="T82" s="27"/>
-      <c r="U82" s="27"/>
-      <c r="V82" s="27"/>
-      <c r="W82" s="27"/>
-      <c r="X82" s="27"/>
-      <c r="Y82" s="27"/>
-      <c r="Z82" s="27"/>
-      <c r="AA82" s="27"/>
-      <c r="AB82" s="27"/>
-      <c r="AC82" s="27"/>
-      <c r="AD82" s="27"/>
-      <c r="AE82" s="27"/>
-      <c r="AF82" s="27"/>
-      <c r="AG82" s="27"/>
-      <c r="AH82" s="27"/>
-      <c r="AI82" s="27"/>
-      <c r="AJ82" s="27"/>
-      <c r="AK82" s="27"/>
-      <c r="AL82" s="27"/>
-      <c r="AM82" s="27"/>
-      <c r="AN82" s="27"/>
-      <c r="AO82" s="27"/>
-      <c r="AP82" s="27"/>
-      <c r="AQ82" s="27"/>
-      <c r="AR82" s="27"/>
+      <c r="B82" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="M82" s="24"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="24"/>
+      <c r="Q82" s="24"/>
+      <c r="R82" s="24"/>
+      <c r="S82" s="24"/>
+      <c r="T82" s="24"/>
+      <c r="U82" s="24"/>
+      <c r="V82" s="24"/>
+      <c r="W82" s="24"/>
+      <c r="X82" s="24"/>
+      <c r="Y82" s="24"/>
+      <c r="Z82" s="24"/>
+      <c r="AA82" s="24"/>
+      <c r="AB82" s="24"/>
+      <c r="AC82" s="24"/>
+      <c r="AD82" s="24"/>
+      <c r="AE82" s="24"/>
+      <c r="AF82" s="24"/>
+      <c r="AG82" s="24"/>
+      <c r="AH82" s="24"/>
+      <c r="AI82" s="24"/>
+      <c r="AJ82" s="24"/>
+      <c r="AK82" s="24"/>
+      <c r="AL82" s="24"/>
+      <c r="AM82" s="24"/>
+      <c r="AN82" s="24"/>
+      <c r="AO82" s="24"/>
+      <c r="AP82" s="24"/>
+      <c r="AQ82" s="24"/>
+      <c r="AR82" s="24"/>
     </row>
     <row r="83" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AL83" s="27"/>
-      <c r="AM83" s="27"/>
-      <c r="AN83" s="27"/>
-      <c r="AO83" s="27"/>
-      <c r="AP83" s="27"/>
-      <c r="AQ83" s="27"/>
-      <c r="AR83" s="27"/>
+      <c r="A83" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="H83" s="31"/>
+      <c r="K83" s="31"/>
+      <c r="L83" s="31"/>
     </row>
     <row r="84" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AL84" s="27"/>
-      <c r="AM84" s="27"/>
-      <c r="AN84" s="27"/>
-      <c r="AO84" s="27"/>
-      <c r="AP84" s="27"/>
-      <c r="AQ84" s="27"/>
-      <c r="AR84" s="27"/>
-    </row>
-    <row r="85" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="26" t="s">
+      <c r="A84" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="H84" s="33"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="33"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="34"/>
+      <c r="N84" s="34"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
+      <c r="Q84" s="34"/>
+      <c r="R84" s="34"/>
+      <c r="S84" s="34"/>
+      <c r="T84" s="34"/>
+      <c r="U84" s="34"/>
+      <c r="V84" s="34"/>
+      <c r="W84" s="34"/>
+      <c r="X84" s="34"/>
+      <c r="Y84" s="34"/>
+      <c r="Z84" s="34"/>
+      <c r="AA84" s="34"/>
+      <c r="AB84" s="34"/>
+      <c r="AC84" s="34"/>
+      <c r="AD84" s="34"/>
+      <c r="AE84" s="34"/>
+      <c r="AF84" s="34"/>
+      <c r="AG84" s="34"/>
+      <c r="AH84" s="34"/>
+      <c r="AI84" s="34"/>
+      <c r="AJ84" s="34"/>
+      <c r="AK84" s="34"/>
+      <c r="AL84" s="34"/>
+      <c r="AM84" s="34"/>
+      <c r="AN84" s="34"/>
+      <c r="AO84" s="34"/>
+      <c r="AP84" s="34"/>
+      <c r="AQ84" s="34"/>
+      <c r="AR84" s="34"/>
+    </row>
+    <row r="85" customFormat="false" ht="42.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C85" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="D85" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="20"/>
+    </row>
+    <row r="86" s="37" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="K86" s="37" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="37"/>
+    </row>
+    <row r="90" s="38" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="B90" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="C90" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="G90" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="H90" s="39"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="39"/>
+    </row>
+    <row r="91" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="20"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
+    </row>
+    <row r="92" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B85" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="C85" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="26"/>
-      <c r="L85" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="M85" s="26"/>
-      <c r="N85" s="26"/>
-      <c r="O85" s="26"/>
-      <c r="P85" s="26"/>
-      <c r="Q85" s="26"/>
-      <c r="R85" s="26"/>
-      <c r="S85" s="26"/>
-      <c r="T85" s="26"/>
-      <c r="U85" s="26"/>
-      <c r="V85" s="26"/>
-      <c r="W85" s="26"/>
-      <c r="X85" s="26"/>
-      <c r="Y85" s="26"/>
-      <c r="Z85" s="26"/>
-      <c r="AA85" s="26"/>
-      <c r="AB85" s="26"/>
-      <c r="AC85" s="26"/>
-      <c r="AD85" s="26"/>
-      <c r="AE85" s="26"/>
-      <c r="AF85" s="26"/>
-      <c r="AG85" s="26"/>
-      <c r="AH85" s="26"/>
-      <c r="AI85" s="26"/>
-      <c r="AJ85" s="26"/>
-      <c r="AK85" s="26"/>
-      <c r="AL85" s="26"/>
-      <c r="AM85" s="26"/>
-      <c r="AN85" s="26"/>
-      <c r="AO85" s="26"/>
-      <c r="AP85" s="26"/>
-      <c r="AQ85" s="26"/>
-      <c r="AR85" s="26"/>
-    </row>
-    <row r="86" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="31" t="s">
+      <c r="B92" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="E92" s="20"/>
+      <c r="F92" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G92" s="6"/>
+      <c r="H92" s="20"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
+    </row>
+    <row r="93" s="38" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="B86" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="D86" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="H86" s="33"/>
-      <c r="K86" s="33"/>
-      <c r="L86" s="33"/>
-    </row>
-    <row r="87" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="34" t="s">
+      <c r="B93" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="C93" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="D93" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="E93" s="39"/>
+      <c r="F93" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="G93" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="H93" s="39"/>
+      <c r="K93" s="39"/>
+      <c r="L93" s="39"/>
+    </row>
+    <row r="94" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B87" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="C87" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="D87" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="H87" s="35"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="35"/>
-      <c r="M87" s="36"/>
-      <c r="N87" s="36"/>
-      <c r="O87" s="36"/>
-      <c r="P87" s="36"/>
-      <c r="Q87" s="36"/>
-      <c r="R87" s="36"/>
-      <c r="S87" s="36"/>
-      <c r="T87" s="36"/>
-      <c r="U87" s="36"/>
-      <c r="V87" s="36"/>
-      <c r="W87" s="36"/>
-      <c r="X87" s="36"/>
-      <c r="Y87" s="36"/>
-      <c r="Z87" s="36"/>
-      <c r="AA87" s="36"/>
-      <c r="AB87" s="36"/>
-      <c r="AC87" s="36"/>
-      <c r="AD87" s="36"/>
-      <c r="AE87" s="36"/>
-      <c r="AF87" s="36"/>
-      <c r="AG87" s="36"/>
-      <c r="AH87" s="36"/>
-      <c r="AI87" s="36"/>
-      <c r="AJ87" s="36"/>
-      <c r="AK87" s="36"/>
-      <c r="AL87" s="36"/>
-      <c r="AM87" s="36"/>
-      <c r="AN87" s="36"/>
-      <c r="AO87" s="36"/>
-      <c r="AP87" s="36"/>
-      <c r="AQ87" s="36"/>
-      <c r="AR87" s="36"/>
-    </row>
-    <row r="88" customFormat="false" ht="42.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C88" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="D88" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="H88" s="20"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="20"/>
-    </row>
-    <row r="89" s="39" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B89" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="K89" s="39" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B90" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B91" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="39"/>
-    </row>
-    <row r="93" s="40" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="B93" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="C93" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E93" s="41"/>
-      <c r="F93" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="G93" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="H93" s="41"/>
-      <c r="K93" s="41"/>
-      <c r="L93" s="41"/>
-    </row>
-    <row r="94" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D94" s="20"/>
+      <c r="B94" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>143</v>
+      </c>
       <c r="E94" s="20"/>
-      <c r="G94" s="6"/>
+      <c r="F94" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="H94" s="20"/>
       <c r="K94" s="20"/>
       <c r="L94" s="20"/>
     </row>
     <row r="95" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="D95" s="19" t="s">
-        <v>249</v>
+        <v>147</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="E95" s="20"/>
       <c r="F95" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G95" s="6"/>
+        <v>259</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="H95" s="20"/>
       <c r="K95" s="20"/>
       <c r="L95" s="20"/>
     </row>
-    <row r="96" s="40" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="40" t="s">
+    <row r="96" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B96" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="C96" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="D96" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="E96" s="41"/>
-      <c r="F96" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="G96" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="H96" s="41"/>
-      <c r="K96" s="41"/>
-      <c r="L96" s="41"/>
+      <c r="B96" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E96" s="20"/>
+      <c r="F96" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H96" s="20"/>
+      <c r="K96" s="20"/>
+      <c r="L96" s="20"/>
     </row>
     <row r="97" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="1" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>257</v>
@@ -4642,17 +4671,17 @@
         <v>224</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E98" s="20"/>
       <c r="F98" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>257</v>
@@ -4666,17 +4695,17 @@
         <v>224</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>257</v>
@@ -4690,17 +4719,17 @@
         <v>224</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>257</v>
@@ -4714,17 +4743,17 @@
         <v>224</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="E101" s="20"/>
       <c r="F101" s="1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>257</v>
@@ -4738,17 +4767,17 @@
         <v>224</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>257</v>
@@ -4762,17 +4791,17 @@
         <v>224</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E103" s="20"/>
       <c r="F103" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>257</v>
@@ -4786,17 +4815,17 @@
         <v>224</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>257</v>
@@ -4810,17 +4839,17 @@
         <v>224</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>257</v>
@@ -4834,17 +4863,17 @@
         <v>224</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>257</v>
@@ -4858,17 +4887,17 @@
         <v>224</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>257</v>
@@ -4882,17 +4911,17 @@
         <v>224</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>257</v>
@@ -4906,17 +4935,17 @@
         <v>224</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="1" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>257</v>
@@ -4930,17 +4959,17 @@
         <v>224</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>257</v>
@@ -4954,17 +4983,17 @@
         <v>224</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>257</v>
@@ -4978,17 +5007,17 @@
         <v>224</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>205</v>
+        <v>218</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>218</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>257</v>
@@ -4999,135 +5028,135 @@
     </row>
     <row r="113" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>208</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C113" s="19"/>
+      <c r="D113" s="8"/>
       <c r="E113" s="20"/>
-      <c r="F113" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="H113" s="20"/>
       <c r="K113" s="20"/>
       <c r="L113" s="20"/>
     </row>
     <row r="114" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C114" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>215</v>
-      </c>
+      <c r="C114" s="19"/>
+      <c r="D114" s="8"/>
       <c r="E114" s="20"/>
-      <c r="F114" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="H114" s="20"/>
       <c r="K114" s="20"/>
       <c r="L114" s="20"/>
     </row>
-    <row r="115" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="s">
+    <row r="115" s="38" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C115" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="D115" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="E115" s="20"/>
-      <c r="F115" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H115" s="20"/>
-      <c r="K115" s="20"/>
-      <c r="L115" s="20"/>
+      <c r="B115" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="C115" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="D115" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="E115" s="39"/>
+      <c r="F115" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="G115" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="H115" s="39"/>
+      <c r="K115" s="39"/>
+      <c r="L115" s="39"/>
     </row>
     <row r="116" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C116" s="19"/>
-      <c r="D116" s="8"/>
+        <v>224</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C116" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D116" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="E116" s="20"/>
+      <c r="F116" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="H116" s="20"/>
       <c r="K116" s="20"/>
       <c r="L116" s="20"/>
     </row>
     <row r="117" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C117" s="19"/>
-      <c r="D117" s="8"/>
+      <c r="A117" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="E117" s="20"/>
+      <c r="F117" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="H117" s="20"/>
       <c r="K117" s="20"/>
       <c r="L117" s="20"/>
     </row>
-    <row r="118" s="40" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="40" t="s">
+    <row r="118" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B118" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="C118" s="40" t="s">
-        <v>295</v>
-      </c>
-      <c r="D118" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="E118" s="41"/>
-      <c r="F118" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="G118" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="H118" s="41"/>
-      <c r="K118" s="41"/>
-      <c r="L118" s="41"/>
+      <c r="B118" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E118" s="20"/>
+      <c r="F118" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H118" s="20"/>
+      <c r="K118" s="20"/>
+      <c r="L118" s="20"/>
     </row>
     <row r="119" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C119" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="D119" s="32" t="s">
-        <v>143</v>
+        <v>305</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="E119" s="20"/>
-      <c r="F119" s="20" t="s">
-        <v>300</v>
+      <c r="F119" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>257</v>
@@ -5141,17 +5170,17 @@
         <v>224</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>257</v>
@@ -5165,17 +5194,17 @@
         <v>224</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="1" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>257</v>
@@ -5189,17 +5218,17 @@
         <v>224</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>257</v>
@@ -5213,17 +5242,17 @@
         <v>224</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>257</v>
@@ -5237,17 +5266,17 @@
         <v>224</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>257</v>
@@ -5261,17 +5290,17 @@
         <v>224</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="1" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>257</v>
@@ -5285,17 +5314,17 @@
         <v>224</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>257</v>
@@ -5309,17 +5338,17 @@
         <v>224</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="1" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>257</v>
@@ -5333,17 +5362,17 @@
         <v>224</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="E128" s="20"/>
       <c r="F128" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>257</v>
@@ -5357,17 +5386,17 @@
         <v>224</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>257</v>
@@ -5381,17 +5410,17 @@
         <v>224</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>257</v>
@@ -5405,17 +5434,17 @@
         <v>224</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>257</v>
@@ -5429,17 +5458,17 @@
         <v>224</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="E132" s="20"/>
       <c r="F132" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>257</v>
@@ -5453,17 +5482,17 @@
         <v>224</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="E133" s="20"/>
       <c r="F133" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>257</v>
@@ -5477,17 +5506,17 @@
         <v>224</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>205</v>
+        <v>218</v>
+      </c>
+      <c r="D134" s="28" t="s">
+        <v>218</v>
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="1" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>257</v>
@@ -5497,506 +5526,437 @@
       <c r="L134" s="20"/>
     </row>
     <row r="135" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C135" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>208</v>
-      </c>
+      <c r="C135" s="19"/>
+      <c r="D135" s="8"/>
       <c r="E135" s="20"/>
-      <c r="F135" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="H135" s="20"/>
       <c r="K135" s="20"/>
       <c r="L135" s="20"/>
     </row>
     <row r="136" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C136" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E136" s="20"/>
-      <c r="F136" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>257</v>
+      <c r="B136" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="C136" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="D136" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="E136" s="43"/>
+      <c r="F136" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="G136" s="41" t="s">
+        <v>341</v>
       </c>
       <c r="H136" s="20"/>
       <c r="K136" s="20"/>
       <c r="L136" s="20"/>
     </row>
     <row r="137" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C137" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="D137" s="30" t="s">
-        <v>218</v>
-      </c>
+      <c r="C137" s="19"/>
+      <c r="D137" s="8"/>
       <c r="E137" s="20"/>
-      <c r="F137" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="H137" s="20"/>
       <c r="K137" s="20"/>
       <c r="L137" s="20"/>
     </row>
     <row r="138" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C138" s="19"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="20"/>
+      <c r="A138" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C138" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="D138" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="E138" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F138" s="20" t="s">
+        <v>340</v>
+      </c>
       <c r="H138" s="20"/>
       <c r="K138" s="20"/>
       <c r="L138" s="20"/>
     </row>
     <row r="139" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="B139" s="43" t="s">
-        <v>337</v>
-      </c>
-      <c r="C139" s="43" t="s">
-        <v>338</v>
-      </c>
-      <c r="D139" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="E139" s="45"/>
-      <c r="F139" s="43" t="s">
-        <v>340</v>
-      </c>
-      <c r="G139" s="43" t="s">
-        <v>341</v>
-      </c>
-      <c r="H139" s="20"/>
-      <c r="K139" s="20"/>
-      <c r="L139" s="20"/>
+      <c r="A139" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B139" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="C139" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="D139" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="E139" s="44"/>
+      <c r="F139" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="G139" s="44"/>
+      <c r="H139" s="44"/>
+      <c r="I139" s="44"/>
+      <c r="J139" s="44"/>
+      <c r="K139" s="44"/>
+      <c r="L139" s="44"/>
+      <c r="M139" s="44"/>
+      <c r="N139" s="44"/>
+      <c r="O139" s="44"/>
+      <c r="P139" s="44"/>
+      <c r="Q139" s="44"/>
+      <c r="R139" s="44"/>
+      <c r="S139" s="44"/>
+      <c r="T139" s="44"/>
+      <c r="U139" s="44"/>
+      <c r="V139" s="44"/>
+      <c r="W139" s="44"/>
+      <c r="X139" s="44"/>
+      <c r="Y139" s="44"/>
+      <c r="Z139" s="44"/>
+      <c r="AA139" s="44"/>
+      <c r="AB139" s="44"/>
+      <c r="AC139" s="44"/>
+      <c r="AD139" s="44"/>
+      <c r="AE139" s="44"/>
+      <c r="AF139" s="44"/>
+      <c r="AG139" s="44"/>
+      <c r="AH139" s="44"/>
+      <c r="AI139" s="44"/>
+      <c r="AJ139" s="44"/>
+      <c r="AK139" s="44"/>
+      <c r="AL139" s="44"/>
+      <c r="AM139" s="44"/>
+      <c r="AN139" s="44"/>
+      <c r="AO139" s="44"/>
+      <c r="AP139" s="44"/>
+      <c r="AQ139" s="44"/>
+      <c r="AR139" s="44"/>
+      <c r="AS139" s="45"/>
     </row>
     <row r="140" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C140" s="19"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="20"/>
-      <c r="H140" s="20"/>
-      <c r="K140" s="20"/>
-      <c r="L140" s="20"/>
+      <c r="A140" s="20"/>
+      <c r="B140" s="44"/>
+      <c r="C140" s="40"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="44"/>
+      <c r="F140" s="44"/>
+      <c r="G140" s="44"/>
+      <c r="H140" s="44"/>
+      <c r="I140" s="44"/>
+      <c r="J140" s="44"/>
+      <c r="K140" s="44"/>
+      <c r="L140" s="44"/>
+      <c r="M140" s="44"/>
+      <c r="N140" s="44"/>
+      <c r="O140" s="44"/>
+      <c r="P140" s="44"/>
+      <c r="Q140" s="44"/>
+      <c r="R140" s="44"/>
+      <c r="S140" s="44"/>
+      <c r="T140" s="44"/>
+      <c r="U140" s="44"/>
+      <c r="V140" s="44"/>
+      <c r="W140" s="44"/>
+      <c r="X140" s="44"/>
+      <c r="Y140" s="44"/>
+      <c r="Z140" s="44"/>
+      <c r="AA140" s="44"/>
+      <c r="AB140" s="44"/>
+      <c r="AC140" s="44"/>
+      <c r="AD140" s="44"/>
+      <c r="AE140" s="44"/>
+      <c r="AF140" s="44"/>
+      <c r="AG140" s="44"/>
+      <c r="AH140" s="44"/>
+      <c r="AI140" s="44"/>
+      <c r="AJ140" s="44"/>
+      <c r="AK140" s="44"/>
+      <c r="AL140" s="44"/>
+      <c r="AM140" s="44"/>
+      <c r="AN140" s="44"/>
+      <c r="AO140" s="44"/>
+      <c r="AP140" s="44"/>
+      <c r="AQ140" s="44"/>
+      <c r="AR140" s="44"/>
+      <c r="AS140" s="45"/>
     </row>
     <row r="141" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C141" s="42" t="s">
-        <v>343</v>
-      </c>
-      <c r="D141" s="32" t="s">
-        <v>344</v>
-      </c>
-      <c r="E141" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F141" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B141" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="C141" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="D141" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="E141" s="44"/>
+      <c r="F141" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="H141" s="20"/>
-      <c r="K141" s="20"/>
-      <c r="L141" s="20"/>
+      <c r="G141" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H141" s="44"/>
+      <c r="I141" s="44"/>
+      <c r="J141" s="44"/>
+      <c r="K141" s="44"/>
+      <c r="L141" s="44"/>
+      <c r="M141" s="44"/>
+      <c r="N141" s="44"/>
+      <c r="O141" s="44"/>
+      <c r="P141" s="44"/>
+      <c r="Q141" s="44"/>
+      <c r="R141" s="44"/>
+      <c r="S141" s="44"/>
+      <c r="T141" s="44"/>
+      <c r="U141" s="44"/>
+      <c r="V141" s="44"/>
+      <c r="W141" s="44"/>
+      <c r="X141" s="44"/>
+      <c r="Y141" s="44"/>
+      <c r="Z141" s="44"/>
+      <c r="AA141" s="44"/>
+      <c r="AB141" s="44"/>
+      <c r="AC141" s="44"/>
+      <c r="AD141" s="44"/>
+      <c r="AE141" s="44"/>
+      <c r="AF141" s="44"/>
+      <c r="AG141" s="44"/>
+      <c r="AH141" s="44"/>
+      <c r="AI141" s="44"/>
+      <c r="AJ141" s="44"/>
+      <c r="AK141" s="44"/>
+      <c r="AL141" s="44"/>
+      <c r="AM141" s="44"/>
+      <c r="AN141" s="44"/>
+      <c r="AO141" s="44"/>
+      <c r="AP141" s="44"/>
+      <c r="AQ141" s="44"/>
+      <c r="AR141" s="44"/>
+      <c r="AS141" s="45"/>
     </row>
     <row r="142" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="B142" s="46" t="s">
-        <v>346</v>
-      </c>
-      <c r="C142" s="42" t="s">
-        <v>347</v>
-      </c>
-      <c r="D142" s="32" t="s">
-        <v>348</v>
-      </c>
-      <c r="E142" s="46"/>
-      <c r="F142" s="46" t="s">
-        <v>349</v>
-      </c>
-      <c r="G142" s="46"/>
-      <c r="H142" s="46"/>
-      <c r="I142" s="46"/>
-      <c r="J142" s="46"/>
-      <c r="K142" s="46"/>
-      <c r="L142" s="46"/>
-      <c r="M142" s="46"/>
-      <c r="N142" s="46"/>
-      <c r="O142" s="46"/>
-      <c r="P142" s="46"/>
-      <c r="Q142" s="46"/>
-      <c r="R142" s="46"/>
-      <c r="S142" s="46"/>
-      <c r="T142" s="46"/>
-      <c r="U142" s="46"/>
-      <c r="V142" s="46"/>
-      <c r="W142" s="46"/>
-      <c r="X142" s="46"/>
-      <c r="Y142" s="46"/>
-      <c r="Z142" s="46"/>
-      <c r="AA142" s="46"/>
-      <c r="AB142" s="46"/>
-      <c r="AC142" s="46"/>
-      <c r="AD142" s="46"/>
-      <c r="AE142" s="46"/>
-      <c r="AF142" s="46"/>
-      <c r="AG142" s="46"/>
-      <c r="AH142" s="46"/>
-      <c r="AI142" s="46"/>
-      <c r="AJ142" s="46"/>
-      <c r="AK142" s="46"/>
-      <c r="AL142" s="46"/>
-      <c r="AM142" s="46"/>
-      <c r="AN142" s="46"/>
-      <c r="AO142" s="46"/>
-      <c r="AP142" s="46"/>
-      <c r="AQ142" s="46"/>
-      <c r="AR142" s="46"/>
-      <c r="AS142" s="47"/>
+      <c r="A142" s="20"/>
+      <c r="B142" s="44"/>
+      <c r="C142" s="40"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="44"/>
+      <c r="F142" s="44"/>
+      <c r="G142" s="44"/>
+      <c r="H142" s="44"/>
+      <c r="I142" s="44"/>
+      <c r="J142" s="44"/>
+      <c r="K142" s="44"/>
+      <c r="L142" s="44"/>
+      <c r="M142" s="44"/>
+      <c r="N142" s="44"/>
+      <c r="O142" s="44"/>
+      <c r="P142" s="44"/>
+      <c r="Q142" s="44"/>
+      <c r="R142" s="44"/>
+      <c r="S142" s="44"/>
+      <c r="T142" s="44"/>
+      <c r="U142" s="44"/>
+      <c r="V142" s="44"/>
+      <c r="W142" s="44"/>
+      <c r="X142" s="44"/>
+      <c r="Y142" s="44"/>
+      <c r="Z142" s="44"/>
+      <c r="AA142" s="44"/>
+      <c r="AB142" s="44"/>
+      <c r="AC142" s="44"/>
+      <c r="AD142" s="44"/>
+      <c r="AE142" s="44"/>
+      <c r="AF142" s="44"/>
+      <c r="AG142" s="44"/>
+      <c r="AH142" s="44"/>
+      <c r="AI142" s="44"/>
+      <c r="AJ142" s="44"/>
+      <c r="AK142" s="44"/>
+      <c r="AL142" s="44"/>
+      <c r="AM142" s="44"/>
+      <c r="AN142" s="44"/>
+      <c r="AO142" s="44"/>
+      <c r="AP142" s="44"/>
+      <c r="AQ142" s="44"/>
+      <c r="AR142" s="44"/>
+      <c r="AS142" s="45"/>
     </row>
     <row r="143" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="20"/>
-      <c r="B143" s="46"/>
-      <c r="C143" s="42"/>
-      <c r="D143" s="32"/>
-      <c r="E143" s="46"/>
-      <c r="F143" s="46"/>
-      <c r="G143" s="46"/>
-      <c r="H143" s="46"/>
-      <c r="I143" s="46"/>
-      <c r="J143" s="46"/>
-      <c r="K143" s="46"/>
-      <c r="L143" s="46"/>
-      <c r="M143" s="46"/>
-      <c r="N143" s="46"/>
-      <c r="O143" s="46"/>
-      <c r="P143" s="46"/>
-      <c r="Q143" s="46"/>
-      <c r="R143" s="46"/>
-      <c r="S143" s="46"/>
-      <c r="T143" s="46"/>
-      <c r="U143" s="46"/>
-      <c r="V143" s="46"/>
-      <c r="W143" s="46"/>
-      <c r="X143" s="46"/>
-      <c r="Y143" s="46"/>
-      <c r="Z143" s="46"/>
-      <c r="AA143" s="46"/>
-      <c r="AB143" s="46"/>
-      <c r="AC143" s="46"/>
-      <c r="AD143" s="46"/>
-      <c r="AE143" s="46"/>
-      <c r="AF143" s="46"/>
-      <c r="AG143" s="46"/>
-      <c r="AH143" s="46"/>
-      <c r="AI143" s="46"/>
-      <c r="AJ143" s="46"/>
-      <c r="AK143" s="46"/>
-      <c r="AL143" s="46"/>
-      <c r="AM143" s="46"/>
-      <c r="AN143" s="46"/>
-      <c r="AO143" s="46"/>
-      <c r="AP143" s="46"/>
-      <c r="AQ143" s="46"/>
-      <c r="AR143" s="46"/>
-      <c r="AS143" s="47"/>
-    </row>
-    <row r="144" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="B144" s="46" t="s">
-        <v>350</v>
-      </c>
-      <c r="C144" s="42" t="s">
-        <v>351</v>
-      </c>
-      <c r="D144" s="32" t="s">
-        <v>352</v>
-      </c>
-      <c r="E144" s="46"/>
-      <c r="F144" s="48" t="s">
-        <v>340</v>
-      </c>
-      <c r="G144" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="H144" s="46"/>
-      <c r="I144" s="46"/>
-      <c r="J144" s="46"/>
-      <c r="K144" s="46"/>
-      <c r="L144" s="46"/>
-      <c r="M144" s="46"/>
-      <c r="N144" s="46"/>
-      <c r="O144" s="46"/>
-      <c r="P144" s="46"/>
-      <c r="Q144" s="46"/>
-      <c r="R144" s="46"/>
-      <c r="S144" s="46"/>
-      <c r="T144" s="46"/>
-      <c r="U144" s="46"/>
-      <c r="V144" s="46"/>
-      <c r="W144" s="46"/>
-      <c r="X144" s="46"/>
-      <c r="Y144" s="46"/>
-      <c r="Z144" s="46"/>
-      <c r="AA144" s="46"/>
-      <c r="AB144" s="46"/>
-      <c r="AC144" s="46"/>
-      <c r="AD144" s="46"/>
-      <c r="AE144" s="46"/>
-      <c r="AF144" s="46"/>
-      <c r="AG144" s="46"/>
-      <c r="AH144" s="46"/>
-      <c r="AI144" s="46"/>
-      <c r="AJ144" s="46"/>
-      <c r="AK144" s="46"/>
-      <c r="AL144" s="46"/>
-      <c r="AM144" s="46"/>
-      <c r="AN144" s="46"/>
-      <c r="AO144" s="46"/>
-      <c r="AP144" s="46"/>
-      <c r="AQ144" s="46"/>
-      <c r="AR144" s="46"/>
-      <c r="AS144" s="47"/>
-    </row>
-    <row r="145" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="20"/>
-      <c r="B145" s="46"/>
-      <c r="C145" s="42"/>
-      <c r="D145" s="32"/>
-      <c r="E145" s="46"/>
-      <c r="F145" s="46"/>
-      <c r="G145" s="46"/>
-      <c r="H145" s="46"/>
-      <c r="I145" s="46"/>
-      <c r="J145" s="46"/>
-      <c r="K145" s="46"/>
-      <c r="L145" s="46"/>
-      <c r="M145" s="46"/>
-      <c r="N145" s="46"/>
-      <c r="O145" s="46"/>
-      <c r="P145" s="46"/>
-      <c r="Q145" s="46"/>
-      <c r="R145" s="46"/>
-      <c r="S145" s="46"/>
-      <c r="T145" s="46"/>
-      <c r="U145" s="46"/>
-      <c r="V145" s="46"/>
-      <c r="W145" s="46"/>
-      <c r="X145" s="46"/>
-      <c r="Y145" s="46"/>
-      <c r="Z145" s="46"/>
-      <c r="AA145" s="46"/>
-      <c r="AB145" s="46"/>
-      <c r="AC145" s="46"/>
-      <c r="AD145" s="46"/>
-      <c r="AE145" s="46"/>
-      <c r="AF145" s="46"/>
-      <c r="AG145" s="46"/>
-      <c r="AH145" s="46"/>
-      <c r="AI145" s="46"/>
-      <c r="AJ145" s="46"/>
-      <c r="AK145" s="46"/>
-      <c r="AL145" s="46"/>
-      <c r="AM145" s="46"/>
-      <c r="AN145" s="46"/>
-      <c r="AO145" s="46"/>
-      <c r="AP145" s="46"/>
-      <c r="AQ145" s="46"/>
-      <c r="AR145" s="46"/>
-      <c r="AS145" s="47"/>
-    </row>
-    <row r="146" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="26" t="s">
+      <c r="A143" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B146" s="26"/>
-      <c r="C146" s="26"/>
-      <c r="D146" s="27"/>
-      <c r="E146" s="27"/>
-      <c r="F146" s="27"/>
-      <c r="G146" s="27"/>
-      <c r="H146" s="27"/>
-      <c r="I146" s="27"/>
-      <c r="J146" s="27"/>
-      <c r="K146" s="26"/>
-      <c r="L146" s="26"/>
-      <c r="M146" s="27"/>
-      <c r="N146" s="27"/>
-      <c r="O146" s="27"/>
-      <c r="P146" s="27"/>
-      <c r="Q146" s="27"/>
-      <c r="R146" s="27"/>
-      <c r="S146" s="27"/>
-      <c r="T146" s="27"/>
-      <c r="U146" s="27"/>
-      <c r="V146" s="27"/>
-      <c r="W146" s="27"/>
-      <c r="X146" s="27"/>
-      <c r="Y146" s="27"/>
-      <c r="Z146" s="27"/>
-      <c r="AA146" s="27"/>
-      <c r="AB146" s="27"/>
-      <c r="AC146" s="27"/>
-      <c r="AD146" s="27"/>
-      <c r="AE146" s="27"/>
-      <c r="AF146" s="27"/>
-      <c r="AG146" s="27"/>
-      <c r="AH146" s="27"/>
-      <c r="AI146" s="27"/>
-      <c r="AJ146" s="27"/>
-      <c r="AK146" s="27"/>
-      <c r="AL146" s="27"/>
-      <c r="AM146" s="27"/>
-      <c r="AN146" s="27"/>
-      <c r="AO146" s="27"/>
-      <c r="AP146" s="27"/>
-      <c r="AQ146" s="27"/>
-      <c r="AR146" s="27"/>
+      <c r="B143" s="24"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="25"/>
+      <c r="E143" s="25"/>
+      <c r="F143" s="25"/>
+      <c r="G143" s="25"/>
+      <c r="H143" s="25"/>
+      <c r="I143" s="25"/>
+      <c r="J143" s="25"/>
+      <c r="K143" s="24"/>
+      <c r="L143" s="24"/>
+      <c r="M143" s="25"/>
+      <c r="N143" s="25"/>
+      <c r="O143" s="25"/>
+      <c r="P143" s="25"/>
+      <c r="Q143" s="25"/>
+      <c r="R143" s="25"/>
+      <c r="S143" s="25"/>
+      <c r="T143" s="25"/>
+      <c r="U143" s="25"/>
+      <c r="V143" s="25"/>
+      <c r="W143" s="25"/>
+      <c r="X143" s="25"/>
+      <c r="Y143" s="25"/>
+      <c r="Z143" s="25"/>
+      <c r="AA143" s="25"/>
+      <c r="AB143" s="25"/>
+      <c r="AC143" s="25"/>
+      <c r="AD143" s="25"/>
+      <c r="AE143" s="25"/>
+      <c r="AF143" s="25"/>
+      <c r="AG143" s="25"/>
+      <c r="AH143" s="25"/>
+      <c r="AI143" s="25"/>
+      <c r="AJ143" s="25"/>
+      <c r="AK143" s="25"/>
+      <c r="AL143" s="25"/>
+      <c r="AM143" s="25"/>
+      <c r="AN143" s="25"/>
+      <c r="AO143" s="25"/>
+      <c r="AP143" s="25"/>
+      <c r="AQ143" s="25"/>
+      <c r="AR143" s="25"/>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="37"/>
+      <c r="C145" s="37"/>
+      <c r="D145" s="37"/>
+      <c r="E145" s="37"/>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="37"/>
+      <c r="C146" s="37"/>
+      <c r="D146" s="37"/>
+      <c r="E146" s="37"/>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="37"/>
+      <c r="C147" s="37"/>
+      <c r="D147" s="37"/>
+      <c r="E147" s="37"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="39"/>
-      <c r="C148" s="39"/>
-      <c r="D148" s="39"/>
-      <c r="E148" s="39"/>
+      <c r="B148" s="37"/>
+      <c r="C148" s="37"/>
+      <c r="D148" s="37"/>
+      <c r="E148" s="37"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="39"/>
-      <c r="C149" s="39"/>
-      <c r="D149" s="39"/>
-      <c r="E149" s="39"/>
+      <c r="B149" s="37"/>
+      <c r="C149" s="37"/>
+      <c r="D149" s="37"/>
+      <c r="E149" s="37"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="39"/>
-      <c r="C150" s="39"/>
-      <c r="D150" s="39"/>
-      <c r="E150" s="39"/>
+      <c r="B150" s="37"/>
+      <c r="C150" s="37"/>
+      <c r="D150" s="37"/>
+      <c r="E150" s="37"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="39"/>
-      <c r="C151" s="39"/>
-      <c r="D151" s="39"/>
-      <c r="E151" s="39"/>
+      <c r="B151" s="37"/>
+      <c r="C151" s="37"/>
+      <c r="D151" s="37"/>
+      <c r="E151" s="37"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="39"/>
-      <c r="C152" s="39"/>
-      <c r="D152" s="39"/>
-      <c r="E152" s="39"/>
+      <c r="B152" s="37"/>
+      <c r="C152" s="37"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="37"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="39"/>
-      <c r="C153" s="39"/>
-      <c r="D153" s="39"/>
-      <c r="E153" s="39"/>
+      <c r="B153" s="37"/>
+      <c r="C153" s="37"/>
+      <c r="D153" s="37"/>
+      <c r="E153" s="37"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="39"/>
-      <c r="C154" s="39"/>
-      <c r="D154" s="39"/>
-      <c r="E154" s="39"/>
+      <c r="B154" s="37"/>
+      <c r="C154" s="37"/>
+      <c r="D154" s="37"/>
+      <c r="E154" s="37"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="39"/>
-      <c r="C155" s="39"/>
-      <c r="D155" s="39"/>
-      <c r="E155" s="39"/>
+      <c r="B155" s="37"/>
+      <c r="C155" s="37"/>
+      <c r="D155" s="37"/>
+      <c r="E155" s="37"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="39"/>
-      <c r="C156" s="39"/>
-      <c r="D156" s="39"/>
-      <c r="E156" s="39"/>
+      <c r="B156" s="37"/>
+      <c r="C156" s="37"/>
+      <c r="D156" s="37"/>
+      <c r="E156" s="37"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="39"/>
-      <c r="C157" s="39"/>
-      <c r="D157" s="39"/>
-      <c r="E157" s="39"/>
+      <c r="B157" s="37"/>
+      <c r="C157" s="37"/>
+      <c r="D157" s="37"/>
+      <c r="E157" s="37"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="39"/>
-      <c r="C158" s="39"/>
-      <c r="D158" s="39"/>
-      <c r="E158" s="39"/>
+      <c r="B158" s="37"/>
+      <c r="C158" s="37"/>
+      <c r="D158" s="37"/>
+      <c r="E158" s="37"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="39"/>
-      <c r="C159" s="39"/>
-      <c r="D159" s="39"/>
-      <c r="E159" s="39"/>
+      <c r="B159" s="37"/>
+      <c r="C159" s="37"/>
+      <c r="D159" s="37"/>
+      <c r="E159" s="37"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="39"/>
-      <c r="C160" s="39"/>
-      <c r="D160" s="39"/>
-      <c r="E160" s="39"/>
+      <c r="B160" s="37"/>
+      <c r="C160" s="37"/>
+      <c r="D160" s="37"/>
+      <c r="E160" s="37"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="39"/>
-      <c r="C161" s="39"/>
-      <c r="D161" s="39"/>
-      <c r="E161" s="39"/>
+      <c r="B161" s="37"/>
+      <c r="C161" s="37"/>
+      <c r="D161" s="37"/>
+      <c r="E161" s="37"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="39"/>
-      <c r="C162" s="39"/>
-      <c r="D162" s="39"/>
-      <c r="E162" s="39"/>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="39"/>
-      <c r="C163" s="39"/>
-      <c r="D163" s="39"/>
-      <c r="E163" s="39"/>
-    </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="39"/>
-      <c r="C164" s="39"/>
-      <c r="D164" s="39"/>
-      <c r="E164" s="39"/>
-    </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="39"/>
-      <c r="C165" s="39"/>
-      <c r="D165" s="39"/>
-      <c r="E165" s="39"/>
-    </row>
+      <c r="B162" s="37"/>
+      <c r="C162" s="37"/>
+      <c r="D162" s="37"/>
+      <c r="E162" s="37"/>
+    </row>
+    <row r="1048321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6274,110 +6234,110 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="39" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="39" width="27.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="38.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="39" width="29.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="39" width="5.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="16" style="39" width="13.51"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="22" style="39" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="37" width="35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="37" width="27.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="37" width="38.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="37" width="29.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="37" width="5.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="16" style="37" width="13.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="22" style="37" width="12.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>354</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="52" t="s">
         <v>355</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="53" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="50" t="s">
         <v>354</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="51" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="52" t="s">
         <v>358</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="53" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="54" t="s">
         <v>360</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="55" t="s">
         <v>361</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="55" t="s">
         <v>362</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="55" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="54" t="s">
         <v>360</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="55" t="s">
         <v>364</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="55" t="s">
         <v>365</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="55" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="8" s="58" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="58" t="s">
+    <row r="8" s="56" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="56" t="s">
         <v>367</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="56" t="s">
         <v>368</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="56" t="s">
         <v>369</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="56" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="9" s="58" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="58" t="s">
+    <row r="9" s="56" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="56" t="s">
         <v>367</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="56" t="s">
         <v>371</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="56" t="s">
         <v>372</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="56" t="s">
         <v>373</v>
       </c>
     </row>
@@ -6472,16 +6432,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="39" width="22.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="39" width="19.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="39" width="4.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="39" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="39" width="26.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="7" style="39" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="39" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="18" style="39" width="13.51"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="39" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="37" width="22.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="37" width="19.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="37" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="37" width="4.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="37" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="37" width="26.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="7" style="37" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="37" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="18" style="37" width="13.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="37" width="12.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6508,23 +6468,23 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="57" t="s">
         <v>381</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="57" t="s">
         <v>382</v>
       </c>
-      <c r="C2" s="60" t="str">
+      <c r="C2" s="58" t="str">
         <f aca="true">TEXT(NOW(),"yyyy-mm-dd_HH-MM")</f>
-        <v>2023-08-22  11-46</v>
-      </c>
-      <c r="D2" s="39" t="s">
+        <v>2024-07-12  9-52</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>383</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="37" t="s">
         <v>384</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="57" t="s">
         <v>385</v>
       </c>
     </row>
@@ -6554,7 +6514,7 @@
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="39" width="33.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="37" width="33.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6669,12 +6629,12 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="20" t="s">
-        <v>144</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6683,22 +6643,22 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="61" t="s">
-        <v>397</v>
+      <c r="A32" s="59" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="24" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="32" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6708,13 +6668,13 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="40" t="s">
-        <v>398</v>
+      <c r="A37" s="38" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6723,32 +6683,32 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="41" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="62" t="s">
-        <v>400</v>
+      <c r="A41" s="60" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="63" t="s">
-        <v>401</v>
+      <c r="A42" s="61" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="64" t="s">
-        <v>403</v>
+      <c r="A44" s="62" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H55" s="39" t="str">
+      <c r="H55" s="37" t="str">
         <f aca="false">CONCATENATE(F59,G59,F60,G60,F61,G61,F62,G62,F63,G63,F64,G64,F65,G65,F66,G66,F67,G67,F68,G68,F69,G69,F70,G70,F71,G71,F72,G72,F73,G73,F74,G74,F75,G75,F76)</f>
         <v>${s_vaccinal_status_BCG} = 'yes' or ${s_vaccinal_status_VPO_0} = 'yes' or ${s_vaccinal_status_DTC_B1} = 'yes' or ${s_vaccinal_status_VPO_1} = 'yes' or ${s_vaccinal_status_pneumo_1} = 'yes' or ${s_vaccinal_status_rota_1} = 'yes' or ${s_vaccinal_status_DTC_B2} = 'yes' or ${s_vaccinal_status_VPO_2} = 'yes' or ${s_vaccinal_status_pneumo_2} = 'yes' or ${s_vaccinal_status_rota_2} = 'yes' or ${s_vaccinal_status_DTC_B3} = 'yes' or ${s_vaccinal_status_VPO_3} = 'yes' or ${s_vaccinal_status_pneumo_3} = 'yes' or ${s_vaccinal_status_rota_3} = 'yes' or ${s_vaccinal_status_VAR} = 'yes' or ${s_vaccinal_status_VAA} = 'yes' or ${s_vaccinal_status_vit_A} = 'yes' or ${s_vaccinal_status_RR2} = 'yes'</v>
       </c>
@@ -6757,155 +6717,155 @@
       <c r="F59" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="G59" s="39" t="s">
-        <v>404</v>
+      <c r="G59" s="37" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F60" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G60" s="39" t="s">
-        <v>404</v>
+      <c r="G60" s="37" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F61" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G61" s="39" t="s">
-        <v>404</v>
+      <c r="G61" s="37" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F62" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G62" s="39" t="s">
-        <v>404</v>
+      <c r="G62" s="37" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F63" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G63" s="39" t="s">
-        <v>404</v>
+      <c r="G63" s="37" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F64" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G64" s="39" t="s">
-        <v>404</v>
+      <c r="G64" s="37" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F65" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G65" s="39" t="s">
-        <v>404</v>
+      <c r="G65" s="37" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F66" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="G66" s="39" t="s">
-        <v>404</v>
+      <c r="G66" s="37" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F67" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="G67" s="39" t="s">
-        <v>404</v>
+      <c r="G67" s="37" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F68" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G68" s="39" t="s">
-        <v>404</v>
+      <c r="G68" s="37" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F69" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G69" s="39" t="s">
-        <v>404</v>
+      <c r="G69" s="37" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F70" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="G70" s="39" t="s">
-        <v>404</v>
+      <c r="G70" s="37" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F71" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G71" s="39" t="s">
-        <v>404</v>
+      <c r="G71" s="37" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F72" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G72" s="37" t="s">
         <v>405</v>
-      </c>
-      <c r="G72" s="39" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F73" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="G73" s="39" t="s">
-        <v>404</v>
+        <v>407</v>
+      </c>
+      <c r="G73" s="37" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F74" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G74" s="39" t="s">
-        <v>404</v>
+      <c r="G74" s="37" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F75" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G75" s="39" t="s">
-        <v>404</v>
+      <c r="G75" s="37" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F76" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="G76" s="39" t="s">
-        <v>404</v>
+      <c r="G76" s="37" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G80" s="39" t="str">
+      <c r="G80" s="37" t="str">
         <f aca="false">CONCATENATE(E84,F84,E85,F85,E86,F86,E87,F87,E88,F88,E89,F89,E90,F90,E91,F91,E92,F92,E93,F93,E94,F94,E95,F95,E96,F96,E97,F97,E98,F98,E99,F99,E100,F100,E101)</f>
         <v/>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G83" s="39" t="s">
-        <v>407</v>
+      <c r="G83" s="37" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7000,10 +6960,10 @@
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="27"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="27"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="1" t="s">
@@ -7030,12 +6990,12 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E16" s="1" t="s">
@@ -7086,12 +7046,12 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E22" s="1" t="s">
@@ -7142,12 +7102,12 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E28" s="1" t="s">
@@ -7187,10 +7147,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E31" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G31" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("coalesce(${",E31,"},${",F31,"})")</f>
@@ -7198,19 +7158,19 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E34" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G34" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("coalesce(${",E34,"},${",F34,"})")</f>
@@ -7242,12 +7202,12 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E39" s="1" t="s">
@@ -7266,8 +7226,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>